--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cd44-Sele.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cd44-Sele.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.27821416682553</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="H2">
-        <v>8.27821416682553</v>
+        <v>31.365167</v>
       </c>
       <c r="I2">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="J2">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.34367669531678</v>
+        <v>8.692291666666668</v>
       </c>
       <c r="N2">
-        <v>1.34367669531678</v>
+        <v>26.076875</v>
       </c>
       <c r="O2">
-        <v>0.4069111148101753</v>
+        <v>0.7904374164682153</v>
       </c>
       <c r="P2">
-        <v>0.4069111148101753</v>
+        <v>0.7904374164682152</v>
       </c>
       <c r="Q2">
-        <v>11.12324345480468</v>
+        <v>90.87839324590279</v>
       </c>
       <c r="R2">
-        <v>11.12324345480468</v>
+        <v>817.9055392131251</v>
       </c>
       <c r="S2">
-        <v>0.002874816258265533</v>
+        <v>0.006483372237859344</v>
       </c>
       <c r="T2">
-        <v>0.002874816258265533</v>
+        <v>0.006483372237859344</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.27821416682553</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="H3">
-        <v>8.27821416682553</v>
+        <v>31.365167</v>
       </c>
       <c r="I3">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="J3">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>1.95846140416376</v>
+        <v>0.125446</v>
       </c>
       <c r="N3">
-        <v>1.95846140416376</v>
+        <v>0.376338</v>
       </c>
       <c r="O3">
-        <v>0.5930888851898247</v>
+        <v>0.01140748791558863</v>
       </c>
       <c r="P3">
-        <v>0.5930888851898247</v>
+        <v>0.01140748791558863</v>
       </c>
       <c r="Q3">
-        <v>16.21256294112946</v>
+        <v>1.311544913160667</v>
       </c>
       <c r="R3">
-        <v>16.21256294112946</v>
+        <v>11.803904218446</v>
       </c>
       <c r="S3">
-        <v>0.004190157279276296</v>
+        <v>9.356716789306654E-05</v>
       </c>
       <c r="T3">
-        <v>0.004190157279276296</v>
+        <v>9.356716789306655E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>164.108091289101</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="H4">
-        <v>164.108091289101</v>
+        <v>31.365167</v>
       </c>
       <c r="I4">
-        <v>0.1400566956699796</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="J4">
-        <v>0.1400566956699796</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.34367669531678</v>
+        <v>0.09408699999999999</v>
       </c>
       <c r="N4">
-        <v>1.34367669531678</v>
+        <v>0.282261</v>
       </c>
       <c r="O4">
-        <v>0.4069111148101753</v>
+        <v>0.008555843275305605</v>
       </c>
       <c r="P4">
-        <v>0.4069111148101753</v>
+        <v>0.008555843275305605</v>
       </c>
       <c r="Q4">
-        <v>220.5082177780837</v>
+        <v>0.9836848225096666</v>
       </c>
       <c r="R4">
-        <v>220.5082177780837</v>
+        <v>8.853163402586999</v>
       </c>
       <c r="S4">
-        <v>0.05699062617170086</v>
+        <v>7.017724060994332E-05</v>
       </c>
       <c r="T4">
-        <v>0.05699062617170086</v>
+        <v>7.017724060994334E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -723,57 +723,57 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>164.108091289101</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="H5">
-        <v>164.108091289101</v>
+        <v>31.365167</v>
       </c>
       <c r="I5">
-        <v>0.1400566956699796</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="J5">
-        <v>0.1400566956699796</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.95846140416376</v>
+        <v>2.040985</v>
       </c>
       <c r="N5">
-        <v>1.95846140416376</v>
+        <v>6.122954999999999</v>
       </c>
       <c r="O5">
-        <v>0.5930888851898247</v>
+        <v>0.185597880549381</v>
       </c>
       <c r="P5">
-        <v>0.5930888851898247</v>
+        <v>0.185597880549381</v>
       </c>
       <c r="Q5">
-        <v>321.3993629006873</v>
+        <v>21.33861178983166</v>
       </c>
       <c r="R5">
-        <v>321.3993629006873</v>
+        <v>192.047506108485</v>
       </c>
       <c r="S5">
-        <v>0.08306606949827877</v>
+        <v>0.001522321844955043</v>
       </c>
       <c r="T5">
-        <v>0.08306606949827877</v>
+        <v>0.001522321844955044</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>151.920568160173</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="H6">
-        <v>151.920568160173</v>
+        <v>31.365167</v>
       </c>
       <c r="I6">
-        <v>0.1296553546731359</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="J6">
-        <v>0.1296553546731359</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.34367669531678</v>
+        <v>0.04400233333333333</v>
       </c>
       <c r="N6">
-        <v>1.34367669531678</v>
+        <v>0.132007</v>
       </c>
       <c r="O6">
-        <v>0.4069111148101753</v>
+        <v>0.004001371791509515</v>
       </c>
       <c r="P6">
-        <v>0.4069111148101753</v>
+        <v>0.004001371791509514</v>
       </c>
       <c r="Q6">
-        <v>204.1321269761089</v>
+        <v>0.4600468444632222</v>
       </c>
       <c r="R6">
-        <v>204.1321269761089</v>
+        <v>4.140421600169</v>
       </c>
       <c r="S6">
-        <v>0.05275820491115438</v>
+        <v>3.28202869018277E-05</v>
       </c>
       <c r="T6">
-        <v>0.05275820491115438</v>
+        <v>3.28202869018277E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>151.920568160173</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="H7">
-        <v>151.920568160173</v>
+        <v>502.283203</v>
       </c>
       <c r="I7">
-        <v>0.1296553546731359</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="J7">
-        <v>0.1296553546731359</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.95846140416376</v>
+        <v>8.692291666666668</v>
       </c>
       <c r="N7">
-        <v>1.95846140416376</v>
+        <v>26.076875</v>
       </c>
       <c r="O7">
-        <v>0.5930888851898247</v>
+        <v>0.7904374164682153</v>
       </c>
       <c r="P7">
-        <v>0.5930888851898247</v>
+        <v>0.7904374164682152</v>
       </c>
       <c r="Q7">
-        <v>297.5305692403286</v>
+        <v>1455.330699914514</v>
       </c>
       <c r="R7">
-        <v>297.5305692403286</v>
+        <v>13097.97629923063</v>
       </c>
       <c r="S7">
-        <v>0.07689714976198148</v>
+        <v>0.1038250162632091</v>
       </c>
       <c r="T7">
-        <v>0.07689714976198148</v>
+        <v>0.1038250162632091</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>145.637165001401</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="H8">
-        <v>145.637165001401</v>
+        <v>502.283203</v>
       </c>
       <c r="I8">
-        <v>0.1242928361216916</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="J8">
-        <v>0.1242928361216916</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.34367669531678</v>
+        <v>0.125446</v>
       </c>
       <c r="N8">
-        <v>1.34367669531678</v>
+        <v>0.376338</v>
       </c>
       <c r="O8">
-        <v>0.4069111148101753</v>
+        <v>0.01140748791558863</v>
       </c>
       <c r="P8">
-        <v>0.4069111148101753</v>
+        <v>0.01140748791558863</v>
       </c>
       <c r="Q8">
-        <v>195.6892645843871</v>
+        <v>21.00313956117934</v>
       </c>
       <c r="R8">
-        <v>195.6892645843871</v>
+        <v>189.028256050614</v>
       </c>
       <c r="S8">
-        <v>0.05057613650919594</v>
+        <v>0.0014983888587288</v>
       </c>
       <c r="T8">
-        <v>0.05057613650919594</v>
+        <v>0.0014983888587288</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>145.637165001401</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="H9">
-        <v>145.637165001401</v>
+        <v>502.283203</v>
       </c>
       <c r="I9">
-        <v>0.1242928361216916</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="J9">
-        <v>0.1242928361216916</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.95846140416376</v>
+        <v>0.09408699999999999</v>
       </c>
       <c r="N9">
-        <v>1.95846140416376</v>
+        <v>0.282261</v>
       </c>
       <c r="O9">
-        <v>0.5930888851898247</v>
+        <v>0.008555843275305605</v>
       </c>
       <c r="P9">
-        <v>0.5930888851898247</v>
+        <v>0.008555843275305605</v>
       </c>
       <c r="Q9">
-        <v>285.224766667073</v>
+        <v>15.75277324022033</v>
       </c>
       <c r="R9">
-        <v>285.224766667073</v>
+        <v>141.774959161983</v>
       </c>
       <c r="S9">
-        <v>0.07371669961249562</v>
+        <v>0.001123821505278898</v>
       </c>
       <c r="T9">
-        <v>0.07371669961249562</v>
+        <v>0.001123821505278898</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>648.665112207224</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="H10">
-        <v>648.665112207224</v>
+        <v>502.283203</v>
       </c>
       <c r="I10">
-        <v>0.5535978847751916</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="J10">
-        <v>0.5535978847751916</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.34367669531678</v>
+        <v>2.040985</v>
       </c>
       <c r="N10">
-        <v>1.34367669531678</v>
+        <v>6.122954999999999</v>
       </c>
       <c r="O10">
-        <v>0.4069111148101753</v>
+        <v>0.185597880549381</v>
       </c>
       <c r="P10">
-        <v>0.4069111148101753</v>
+        <v>0.185597880549381</v>
       </c>
       <c r="Q10">
-        <v>871.596194337891</v>
+        <v>341.7174943583183</v>
       </c>
       <c r="R10">
-        <v>871.596194337891</v>
+        <v>3075.457449224865</v>
       </c>
       <c r="S10">
-        <v>0.2252651324504281</v>
+        <v>0.02437853088047925</v>
       </c>
       <c r="T10">
-        <v>0.2252651324504281</v>
+        <v>0.02437853088047925</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>648.665112207224</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="H11">
-        <v>648.665112207224</v>
+        <v>502.283203</v>
       </c>
       <c r="I11">
-        <v>0.5535978847751916</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="J11">
-        <v>0.5535978847751916</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>1.95846140416376</v>
+        <v>0.04400233333333333</v>
       </c>
       <c r="N11">
-        <v>1.95846140416376</v>
+        <v>0.132007</v>
       </c>
       <c r="O11">
-        <v>0.5930888851898247</v>
+        <v>0.004001371791509515</v>
       </c>
       <c r="P11">
-        <v>0.5930888851898247</v>
+        <v>0.004001371791509514</v>
       </c>
       <c r="Q11">
-        <v>1270.385586485403</v>
+        <v>7.367210975380111</v>
       </c>
       <c r="R11">
-        <v>1270.385586485403</v>
+        <v>66.30489877842099</v>
       </c>
       <c r="S11">
-        <v>0.3283327523247634</v>
+        <v>0.000525585558923661</v>
       </c>
       <c r="T11">
-        <v>0.3283327523247634</v>
+        <v>0.000525585558923661</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,114 +1157,1230 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>53.1169883938852</v>
+        <v>227.495678</v>
       </c>
       <c r="H12">
-        <v>53.1169883938852</v>
+        <v>682.487034</v>
       </c>
       <c r="I12">
-        <v>0.04533225522245957</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="J12">
-        <v>0.04533225522245957</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.34367669531678</v>
+        <v>8.692291666666668</v>
       </c>
       <c r="N12">
-        <v>1.34367669531678</v>
+        <v>26.076875</v>
       </c>
       <c r="O12">
-        <v>0.4069111148101753</v>
+        <v>0.7904374164682153</v>
       </c>
       <c r="P12">
-        <v>0.4069111148101753</v>
+        <v>0.7904374164682152</v>
       </c>
       <c r="Q12">
-        <v>71.37205943027543</v>
+        <v>1977.458786082084</v>
       </c>
       <c r="R12">
-        <v>71.37205943027543</v>
+        <v>17797.12907473875</v>
       </c>
       <c r="S12">
-        <v>0.01844619850943041</v>
+        <v>0.1410742524959158</v>
       </c>
       <c r="T12">
-        <v>0.01844619850943041</v>
+        <v>0.1410742524959158</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>227.495678</v>
+      </c>
+      <c r="H13">
+        <v>682.487034</v>
+      </c>
+      <c r="I13">
+        <v>0.1784761823728629</v>
+      </c>
+      <c r="J13">
+        <v>0.1784761823728629</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.125446</v>
+      </c>
+      <c r="N13">
+        <v>0.376338</v>
+      </c>
+      <c r="O13">
+        <v>0.01140748791558863</v>
+      </c>
+      <c r="P13">
+        <v>0.01140748791558863</v>
+      </c>
+      <c r="Q13">
+        <v>28.538422822388</v>
+      </c>
+      <c r="R13">
+        <v>256.845805401492</v>
+      </c>
+      <c r="S13">
+        <v>0.002035964893638826</v>
+      </c>
+      <c r="T13">
+        <v>0.002035964893638826</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>227.495678</v>
+      </c>
+      <c r="H14">
+        <v>682.487034</v>
+      </c>
+      <c r="I14">
+        <v>0.1784761823728629</v>
+      </c>
+      <c r="J14">
+        <v>0.1784761823728629</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.09408699999999999</v>
+      </c>
+      <c r="N14">
+        <v>0.282261</v>
+      </c>
+      <c r="O14">
+        <v>0.008555843275305605</v>
+      </c>
+      <c r="P14">
+        <v>0.008555843275305605</v>
+      </c>
+      <c r="Q14">
+        <v>21.404385855986</v>
+      </c>
+      <c r="R14">
+        <v>192.639472703874</v>
+      </c>
+      <c r="S14">
+        <v>0.001527014244757076</v>
+      </c>
+      <c r="T14">
+        <v>0.001527014244757076</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>227.495678</v>
+      </c>
+      <c r="H15">
+        <v>682.487034</v>
+      </c>
+      <c r="I15">
+        <v>0.1784761823728629</v>
+      </c>
+      <c r="J15">
+        <v>0.1784761823728629</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.040985</v>
+      </c>
+      <c r="N15">
+        <v>6.122954999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.185597880549381</v>
+      </c>
+      <c r="P15">
+        <v>0.185597880549381</v>
+      </c>
+      <c r="Q15">
+        <v>464.3152663628299</v>
+      </c>
+      <c r="R15">
+        <v>4178.837397265469</v>
+      </c>
+      <c r="S15">
+        <v>0.03312480117694815</v>
+      </c>
+      <c r="T15">
+        <v>0.03312480117694816</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>227.495678</v>
+      </c>
+      <c r="H16">
+        <v>682.487034</v>
+      </c>
+      <c r="I16">
+        <v>0.1784761823728629</v>
+      </c>
+      <c r="J16">
+        <v>0.1784761823728629</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.04400233333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.132007</v>
+      </c>
+      <c r="O16">
+        <v>0.004001371791509515</v>
+      </c>
+      <c r="P16">
+        <v>0.004001371791509514</v>
+      </c>
+      <c r="Q16">
+        <v>10.01034065524867</v>
+      </c>
+      <c r="R16">
+        <v>90.09306589723799</v>
+      </c>
+      <c r="S16">
+        <v>0.0007141495616030814</v>
+      </c>
+      <c r="T16">
+        <v>0.0007141495616030814</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>147.9815903333333</v>
+      </c>
+      <c r="H17">
+        <v>443.9447709999999</v>
+      </c>
+      <c r="I17">
+        <v>0.1160953453549051</v>
+      </c>
+      <c r="J17">
+        <v>0.1160953453549051</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>8.692291666666668</v>
+      </c>
+      <c r="N17">
+        <v>26.076875</v>
+      </c>
+      <c r="O17">
+        <v>0.7904374164682153</v>
+      </c>
+      <c r="P17">
+        <v>0.7904374164682152</v>
+      </c>
+      <c r="Q17">
+        <v>1286.299144474514</v>
+      </c>
+      <c r="R17">
+        <v>11576.69230027062</v>
+      </c>
+      <c r="S17">
+        <v>0.09176610484631641</v>
+      </c>
+      <c r="T17">
+        <v>0.09176610484631641</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>147.9815903333333</v>
+      </c>
+      <c r="H18">
+        <v>443.9447709999999</v>
+      </c>
+      <c r="I18">
+        <v>0.1160953453549051</v>
+      </c>
+      <c r="J18">
+        <v>0.1160953453549051</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.125446</v>
+      </c>
+      <c r="N18">
+        <v>0.376338</v>
+      </c>
+      <c r="O18">
+        <v>0.01140748791558863</v>
+      </c>
+      <c r="P18">
+        <v>0.01140748791558863</v>
+      </c>
+      <c r="Q18">
+        <v>18.56369858095533</v>
+      </c>
+      <c r="R18">
+        <v>167.073287228598</v>
+      </c>
+      <c r="S18">
+        <v>0.001324356249192168</v>
+      </c>
+      <c r="T18">
+        <v>0.001324356249192168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>147.9815903333333</v>
+      </c>
+      <c r="H19">
+        <v>443.9447709999999</v>
+      </c>
+      <c r="I19">
+        <v>0.1160953453549051</v>
+      </c>
+      <c r="J19">
+        <v>0.1160953453549051</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.09408699999999999</v>
+      </c>
+      <c r="N19">
+        <v>0.282261</v>
+      </c>
+      <c r="O19">
+        <v>0.008555843275305605</v>
+      </c>
+      <c r="P19">
+        <v>0.008555843275305605</v>
+      </c>
+      <c r="Q19">
+        <v>13.92314388969233</v>
+      </c>
+      <c r="R19">
+        <v>125.308295007231</v>
+      </c>
+      <c r="S19">
+        <v>0.0009932935798490465</v>
+      </c>
+      <c r="T19">
+        <v>0.0009932935798490467</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>53.1169883938852</v>
-      </c>
-      <c r="H13">
-        <v>53.1169883938852</v>
-      </c>
-      <c r="I13">
-        <v>0.04533225522245957</v>
-      </c>
-      <c r="J13">
-        <v>0.04533225522245957</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.95846140416376</v>
-      </c>
-      <c r="N13">
-        <v>1.95846140416376</v>
-      </c>
-      <c r="O13">
-        <v>0.5930888851898247</v>
-      </c>
-      <c r="P13">
-        <v>0.5930888851898247</v>
-      </c>
-      <c r="Q13">
-        <v>104.0275716748386</v>
-      </c>
-      <c r="R13">
-        <v>104.0275716748386</v>
-      </c>
-      <c r="S13">
-        <v>0.02688605671302916</v>
-      </c>
-      <c r="T13">
-        <v>0.02688605671302916</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>147.9815903333333</v>
+      </c>
+      <c r="H20">
+        <v>443.9447709999999</v>
+      </c>
+      <c r="I20">
+        <v>0.1160953453549051</v>
+      </c>
+      <c r="J20">
+        <v>0.1160953453549051</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2.040985</v>
+      </c>
+      <c r="N20">
+        <v>6.122954999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.185597880549381</v>
+      </c>
+      <c r="P20">
+        <v>0.185597880549381</v>
+      </c>
+      <c r="Q20">
+        <v>302.0282061464782</v>
+      </c>
+      <c r="R20">
+        <v>2718.253855318304</v>
+      </c>
+      <c r="S20">
+        <v>0.02154705003951881</v>
+      </c>
+      <c r="T20">
+        <v>0.02154705003951882</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>147.9815903333333</v>
+      </c>
+      <c r="H21">
+        <v>443.9447709999999</v>
+      </c>
+      <c r="I21">
+        <v>0.1160953453549051</v>
+      </c>
+      <c r="J21">
+        <v>0.1160953453549051</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.04400233333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.132007</v>
+      </c>
+      <c r="O21">
+        <v>0.004001371791509515</v>
+      </c>
+      <c r="P21">
+        <v>0.004001371791509514</v>
+      </c>
+      <c r="Q21">
+        <v>6.51153526504411</v>
+      </c>
+      <c r="R21">
+        <v>58.60381738539699</v>
+      </c>
+      <c r="S21">
+        <v>0.0004645406400286725</v>
+      </c>
+      <c r="T21">
+        <v>0.0004645406400286725</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>665.7853396666667</v>
+      </c>
+      <c r="H22">
+        <v>1997.356019</v>
+      </c>
+      <c r="I22">
+        <v>0.5223256404173379</v>
+      </c>
+      <c r="J22">
+        <v>0.522325640417338</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>8.692291666666668</v>
+      </c>
+      <c r="N22">
+        <v>26.076875</v>
+      </c>
+      <c r="O22">
+        <v>0.7904374164682153</v>
+      </c>
+      <c r="P22">
+        <v>0.7904374164682152</v>
+      </c>
+      <c r="Q22">
+        <v>5787.200359773404</v>
+      </c>
+      <c r="R22">
+        <v>52084.80323796063</v>
+      </c>
+      <c r="S22">
+        <v>0.4128657297665866</v>
+      </c>
+      <c r="T22">
+        <v>0.4128657297665866</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>665.7853396666667</v>
+      </c>
+      <c r="H23">
+        <v>1997.356019</v>
+      </c>
+      <c r="I23">
+        <v>0.5223256404173379</v>
+      </c>
+      <c r="J23">
+        <v>0.522325640417338</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.125446</v>
+      </c>
+      <c r="N23">
+        <v>0.376338</v>
+      </c>
+      <c r="O23">
+        <v>0.01140748791558863</v>
+      </c>
+      <c r="P23">
+        <v>0.01140748791558863</v>
+      </c>
+      <c r="Q23">
+        <v>83.52010771982467</v>
+      </c>
+      <c r="R23">
+        <v>751.6809694784221</v>
+      </c>
+      <c r="S23">
+        <v>0.005958423431062872</v>
+      </c>
+      <c r="T23">
+        <v>0.005958423431062873</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>665.7853396666667</v>
+      </c>
+      <c r="H24">
+        <v>1997.356019</v>
+      </c>
+      <c r="I24">
+        <v>0.5223256404173379</v>
+      </c>
+      <c r="J24">
+        <v>0.522325640417338</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.09408699999999999</v>
+      </c>
+      <c r="N24">
+        <v>0.282261</v>
+      </c>
+      <c r="O24">
+        <v>0.008555843275305605</v>
+      </c>
+      <c r="P24">
+        <v>0.008555843275305605</v>
+      </c>
+      <c r="Q24">
+        <v>62.64174525321766</v>
+      </c>
+      <c r="R24">
+        <v>563.775707278959</v>
+      </c>
+      <c r="S24">
+        <v>0.004468936318084374</v>
+      </c>
+      <c r="T24">
+        <v>0.004468936318084375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>665.7853396666667</v>
+      </c>
+      <c r="H25">
+        <v>1997.356019</v>
+      </c>
+      <c r="I25">
+        <v>0.5223256404173379</v>
+      </c>
+      <c r="J25">
+        <v>0.522325640417338</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2.040985</v>
+      </c>
+      <c r="N25">
+        <v>6.122954999999999</v>
+      </c>
+      <c r="O25">
+        <v>0.185597880549381</v>
+      </c>
+      <c r="P25">
+        <v>0.185597880549381</v>
+      </c>
+      <c r="Q25">
+        <v>1358.857891479571</v>
+      </c>
+      <c r="R25">
+        <v>12229.72102331614</v>
+      </c>
+      <c r="S25">
+        <v>0.09694253181805601</v>
+      </c>
+      <c r="T25">
+        <v>0.09694253181805602</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>665.7853396666667</v>
+      </c>
+      <c r="H26">
+        <v>1997.356019</v>
+      </c>
+      <c r="I26">
+        <v>0.5223256404173379</v>
+      </c>
+      <c r="J26">
+        <v>0.522325640417338</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.04400233333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.132007</v>
+      </c>
+      <c r="O26">
+        <v>0.004001371791509515</v>
+      </c>
+      <c r="P26">
+        <v>0.004001371791509514</v>
+      </c>
+      <c r="Q26">
+        <v>29.29610844445922</v>
+      </c>
+      <c r="R26">
+        <v>263.664976000133</v>
+      </c>
+      <c r="S26">
+        <v>0.002090019083548078</v>
+      </c>
+      <c r="T26">
+        <v>0.002090019083548078</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>55.51027300000001</v>
+      </c>
+      <c r="H27">
+        <v>166.530819</v>
+      </c>
+      <c r="I27">
+        <v>0.043549230010055</v>
+      </c>
+      <c r="J27">
+        <v>0.04354923001005501</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>8.692291666666668</v>
+      </c>
+      <c r="N27">
+        <v>26.076875</v>
+      </c>
+      <c r="O27">
+        <v>0.7904374164682153</v>
+      </c>
+      <c r="P27">
+        <v>0.7904374164682152</v>
+      </c>
+      <c r="Q27">
+        <v>482.5114834122917</v>
+      </c>
+      <c r="R27">
+        <v>4342.603350710626</v>
+      </c>
+      <c r="S27">
+        <v>0.03442294085832794</v>
+      </c>
+      <c r="T27">
+        <v>0.03442294085832794</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>55.51027300000001</v>
+      </c>
+      <c r="H28">
+        <v>166.530819</v>
+      </c>
+      <c r="I28">
+        <v>0.043549230010055</v>
+      </c>
+      <c r="J28">
+        <v>0.04354923001005501</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.125446</v>
+      </c>
+      <c r="N28">
+        <v>0.376338</v>
+      </c>
+      <c r="O28">
+        <v>0.01140748791558863</v>
+      </c>
+      <c r="P28">
+        <v>0.01140748791558863</v>
+      </c>
+      <c r="Q28">
+        <v>6.963541706758001</v>
+      </c>
+      <c r="R28">
+        <v>62.67187536082201</v>
+      </c>
+      <c r="S28">
+        <v>0.000496787315072892</v>
+      </c>
+      <c r="T28">
+        <v>0.0004967873150728921</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>55.51027300000001</v>
+      </c>
+      <c r="H29">
+        <v>166.530819</v>
+      </c>
+      <c r="I29">
+        <v>0.043549230010055</v>
+      </c>
+      <c r="J29">
+        <v>0.04354923001005501</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.09408699999999999</v>
+      </c>
+      <c r="N29">
+        <v>0.282261</v>
+      </c>
+      <c r="O29">
+        <v>0.008555843275305605</v>
+      </c>
+      <c r="P29">
+        <v>0.008555843275305605</v>
+      </c>
+      <c r="Q29">
+        <v>5.222795055751</v>
+      </c>
+      <c r="R29">
+        <v>47.005155501759</v>
+      </c>
+      <c r="S29">
+        <v>0.0003726003867262661</v>
+      </c>
+      <c r="T29">
+        <v>0.0003726003867262662</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>55.51027300000001</v>
+      </c>
+      <c r="H30">
+        <v>166.530819</v>
+      </c>
+      <c r="I30">
+        <v>0.043549230010055</v>
+      </c>
+      <c r="J30">
+        <v>0.04354923001005501</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.040985</v>
+      </c>
+      <c r="N30">
+        <v>6.122954999999999</v>
+      </c>
+      <c r="O30">
+        <v>0.185597880549381</v>
+      </c>
+      <c r="P30">
+        <v>0.185597880549381</v>
+      </c>
+      <c r="Q30">
+        <v>113.295634538905</v>
+      </c>
+      <c r="R30">
+        <v>1019.660710850145</v>
+      </c>
+      <c r="S30">
+        <v>0.008082644789423707</v>
+      </c>
+      <c r="T30">
+        <v>0.008082644789423707</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>55.51027300000001</v>
+      </c>
+      <c r="H31">
+        <v>166.530819</v>
+      </c>
+      <c r="I31">
+        <v>0.043549230010055</v>
+      </c>
+      <c r="J31">
+        <v>0.04354923001005501</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M31">
+        <v>0.04400233333333333</v>
+      </c>
+      <c r="N31">
+        <v>0.132007</v>
+      </c>
+      <c r="O31">
+        <v>0.004001371791509515</v>
+      </c>
+      <c r="P31">
+        <v>0.004001371791509514</v>
+      </c>
+      <c r="Q31">
+        <v>2.442581535970334</v>
+      </c>
+      <c r="R31">
+        <v>21.983233823733</v>
+      </c>
+      <c r="S31">
+        <v>0.0001742566605041937</v>
+      </c>
+      <c r="T31">
+        <v>0.0001742566605041937</v>
       </c>
     </row>
   </sheetData>
